--- a/Document/Schedule/Time estimating.xlsx
+++ b/Document/Schedule/Time estimating.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Working name</t>
   </si>
@@ -87,7 +87,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -95,7 +95,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -103,7 +103,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -202,32 +202,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -532,22 +533,22 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -558,8 +559,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -573,8 +574,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -586,8 +587,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -599,123 +600,127 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
         <v>36</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>15</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <v>30</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12">
         <v>4</v>
       </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="E8" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12">
         <v>1</v>
       </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="E9" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
         <v>6</v>
       </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
         <v>4</v>
       </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
         <v>4</v>
       </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7">
         <v>4</v>
       </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7">
         <v>2</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="7"/>
       <c r="F14">
         <f>SUM(D8:D14)</f>
         <v>25</v>
@@ -725,119 +730,119 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>

--- a/Document/Schedule/Time estimating.xlsx
+++ b/Document/Schedule/Time estimating.xlsx
@@ -70,13 +70,13 @@
     <t>Category management</t>
   </si>
   <si>
-    <t>Print product info(pdf)</t>
-  </si>
-  <si>
     <t>Log management</t>
   </si>
   <si>
     <t>Sum</t>
+  </si>
+  <si>
+    <t>Print log</t>
   </si>
 </sst>
 </file>
@@ -213,6 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -225,7 +226,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,10 +545,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -560,7 +560,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -575,7 +575,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -588,7 +588,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -601,7 +601,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -614,7 +614,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -627,7 +627,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -642,44 +642,44 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
         <v>4</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
         <v>6</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
@@ -690,7 +690,7 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -701,9 +701,9 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7">
@@ -712,9 +712,9 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7">
@@ -731,112 +731,112 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -844,7 +844,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <f>SUM(D2:D30)</f>

--- a/Document/Schedule/Time estimating.xlsx
+++ b/Document/Schedule/Time estimating.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Working name</t>
   </si>
@@ -202,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -226,6 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +534,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +677,9 @@
       <c r="D10" s="8">
         <v>6</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
@@ -687,7 +690,9 @@
       <c r="D11" s="7">
         <v>4</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="13">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -713,14 +718,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8">
         <v>2</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="F14">
         <f>SUM(D8:D14)</f>
         <v>25</v>

--- a/Document/Schedule/Time estimating.xlsx
+++ b/Document/Schedule/Time estimating.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Working name</t>
   </si>
@@ -87,7 +87,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -95,7 +95,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -103,7 +103,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -202,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -226,10 +226,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -534,18 +533,18 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -560,7 +559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
@@ -575,7 +574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -588,7 +587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -601,7 +600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
@@ -614,7 +613,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -627,7 +626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -642,7 +641,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="8" t="s">
         <v>13</v>
@@ -655,7 +654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>14</v>
@@ -668,7 +667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="8" t="s">
         <v>15</v>
@@ -681,20 +680,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
         <v>4</v>
       </c>
-      <c r="E11" s="13">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
@@ -705,7 +704,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="7" t="s">
         <v>20</v>
@@ -716,7 +715,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="8" t="s">
         <v>18</v>
@@ -737,119 +736,119 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>

--- a/Document/Schedule/Time estimating.xlsx
+++ b/Document/Schedule/Time estimating.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7260"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -226,6 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
@@ -533,7 +534,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -702,7 +703,9 @@
       <c r="D12" s="7">
         <v>4</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
